--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_97.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,612 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[('0:00:07.140000', '0:00:22.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.18, 61.66)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.74, 35.46)]</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:08.660000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.88, 21.16)]</t>
+          <t>[('0:01:24', '0:01:30.840000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6176470588235294</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(40.96, 43.3)]</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.8, 8.24)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[('0:00:10.100000', '0:00:15.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:37.620000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:00:03.320000', '0:00:06.300000'), ('0:00:00.560000', '0:00:04.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -1068,135 +1102,100 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1504237288135593</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G/2', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.475578, 32.351768)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(8.342335, 11.17517)]</t>
+          <t>[('0:00:05.020000', '0:00:08.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1004464285714286</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.9, 20.7)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.02, 15.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
